--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_14_2.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_14_2.xlsx
@@ -518,991 +518,991 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_14_2_1</t>
+          <t>model_14_2_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999740496180906</v>
+        <v>0.9998102124371075</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9990661471704517</v>
+        <v>0.9993822621356367</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999733672329443</v>
+        <v>0.9993816772716811</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9997920495104626</v>
+        <v>0.9999970470518479</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9998969777276592</v>
+        <v>0.9998241603380547</v>
       </c>
       <c r="G2" t="n">
-        <v>2.422354242236869e-05</v>
+        <v>0.0001771583592488975</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008717106249817114</v>
+        <v>0.0005766311808247711</v>
       </c>
       <c r="I2" t="n">
-        <v>1.974943828575527e-05</v>
+        <v>0.0001846983225619953</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0001142068554840451</v>
+        <v>2.119431703001234e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>6.697814688490019e-05</v>
+        <v>9.340887713249826e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0004258622296468525</v>
+        <v>0.000753906479414248</v>
       </c>
       <c r="M2" t="n">
-        <v>0.004921741807771786</v>
+        <v>0.0133100848700862</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000069201018425</v>
+        <v>1.000506100167713</v>
       </c>
       <c r="O2" t="n">
-        <v>0.005131270545938709</v>
+        <v>0.0138767227386798</v>
       </c>
       <c r="P2" t="n">
-        <v>87.2563711406418</v>
+        <v>83.27693308072102</v>
       </c>
       <c r="Q2" t="n">
-        <v>127.4792733612924</v>
+        <v>123.4998353013716</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_14_2_2</t>
+          <t>model_14_2_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999735793551987</v>
+        <v>0.999840087826233</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990658194391357</v>
+        <v>0.9993680342002427</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999718892358103</v>
+        <v>0.9994455836191556</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9997847150717784</v>
+        <v>0.9999973301317344</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9998930369219263</v>
+        <v>0.9998423191896546</v>
       </c>
       <c r="G3" t="n">
-        <v>2.466251218969673e-05</v>
+        <v>0.0001492709948783011</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008720165477793517</v>
+        <v>0.0005899123339808747</v>
       </c>
       <c r="I3" t="n">
-        <v>2.084544205901055e-05</v>
+        <v>0.0001656089463527818</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0001182349449621395</v>
+        <v>1.91625560402679e-06</v>
       </c>
       <c r="K3" t="n">
-        <v>6.954019351057501e-05</v>
+        <v>8.37626009784043e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0004256820778987237</v>
+        <v>0.0007047738560949872</v>
       </c>
       <c r="M3" t="n">
-        <v>0.004966136545615387</v>
+        <v>0.01221765095582212</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000070455052803</v>
+        <v>1.000426432463379</v>
       </c>
       <c r="O3" t="n">
-        <v>0.005177555259682089</v>
+        <v>0.01273778165103554</v>
       </c>
       <c r="P3" t="n">
-        <v>87.22045238471055</v>
+        <v>83.6194942927664</v>
       </c>
       <c r="Q3" t="n">
-        <v>127.4433546053612</v>
+        <v>123.842396513417</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_14_2_3</t>
+          <t>model_14_2_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999731954303552</v>
+        <v>0.9998655304856993</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9990647563599981</v>
+        <v>0.9993522460954463</v>
       </c>
       <c r="D4" t="n">
-        <v>0.999970501423848</v>
+        <v>0.9995036091229081</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9997784470267738</v>
+        <v>0.9999975060506465</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9998895979692919</v>
+        <v>0.9998587522168725</v>
       </c>
       <c r="G4" t="n">
-        <v>2.502088917874906e-05</v>
+        <v>0.0001255213890702424</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008730088854905817</v>
+        <v>0.0006046498367906353</v>
       </c>
       <c r="I4" t="n">
-        <v>2.187456932331033e-05</v>
+        <v>0.0001482762287959602</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0001216773687409789</v>
+        <v>1.789992594913984e-06</v>
       </c>
       <c r="K4" t="n">
-        <v>7.17759690321446e-05</v>
+        <v>7.503311069543711e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0004239828170065775</v>
+        <v>0.0006571229663714587</v>
       </c>
       <c r="M4" t="n">
-        <v>0.005002088481699325</v>
+        <v>0.01120363285145682</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000071478852386</v>
+        <v>1.000358585371469</v>
       </c>
       <c r="O4" t="n">
-        <v>0.005215037744115887</v>
+        <v>0.01168059469666056</v>
       </c>
       <c r="P4" t="n">
-        <v>87.19159902967601</v>
+        <v>83.96606876615107</v>
       </c>
       <c r="Q4" t="n">
-        <v>127.4145012503266</v>
+        <v>124.1889709868017</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_14_2_4</t>
+          <t>model_14_2_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999728765680836</v>
+        <v>0.9998871181284785</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990632036143511</v>
+        <v>0.9993354228152291</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999692282579489</v>
+        <v>0.9995556401866328</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9997731317774253</v>
+        <v>0.9999976136674684</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9998866268387127</v>
+        <v>0.9998734537329025</v>
       </c>
       <c r="G5" t="n">
-        <v>2.531853311288301e-05</v>
+        <v>0.0001053702721238423</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008744583053944535</v>
+        <v>0.0006203536304166938</v>
       </c>
       <c r="I5" t="n">
-        <v>2.281868118748176e-05</v>
+        <v>0.000132734102086205</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0001245965150990763</v>
+        <v>1.712752327777733e-06</v>
       </c>
       <c r="K5" t="n">
-        <v>7.370759814327905e-05</v>
+        <v>6.72234272069914e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0004212388615819649</v>
+        <v>0.0006111065341720844</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005031752489231064</v>
+        <v>0.01026500229536469</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000072329151777</v>
+        <v>1.000301018324057</v>
       </c>
       <c r="O5" t="n">
-        <v>0.005245964609861213</v>
+        <v>0.01070200469456248</v>
       </c>
       <c r="P5" t="n">
-        <v>87.16794779259381</v>
+        <v>84.31606001960193</v>
       </c>
       <c r="Q5" t="n">
-        <v>127.3908500132444</v>
+        <v>124.5389622402525</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_14_2_5</t>
+          <t>model_14_2_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999725986939</v>
+        <v>0.9999053278205454</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9990613140448218</v>
+        <v>0.9993179811463005</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999680621704476</v>
+        <v>0.9996015080204187</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9997685407706263</v>
+        <v>0.9999976799931959</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9998840226787502</v>
+        <v>0.9998863945290292</v>
       </c>
       <c r="G6" t="n">
-        <v>2.557791646600531e-05</v>
+        <v>8.837232389246244e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008762221356075482</v>
+        <v>0.0006366346627607515</v>
       </c>
       <c r="I6" t="n">
-        <v>2.368338942801734e-05</v>
+        <v>0.0001190329852230765</v>
       </c>
       <c r="J6" t="n">
-        <v>0.000127117905893558</v>
+        <v>1.665148088759353e-06</v>
       </c>
       <c r="K6" t="n">
-        <v>7.540064766078766e-05</v>
+        <v>6.034906665591791e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.000418079191927545</v>
+        <v>0.000567086624354863</v>
       </c>
       <c r="M6" t="n">
-        <v>0.005057461464609029</v>
+        <v>0.009400655503339246</v>
       </c>
       <c r="N6" t="n">
-        <v>1.0000730701496</v>
+        <v>1.000252459145212</v>
       </c>
       <c r="O6" t="n">
-        <v>0.005272768069545935</v>
+        <v>0.009800860870155989</v>
       </c>
       <c r="P6" t="n">
-        <v>87.14756243362348</v>
+        <v>84.66790343095886</v>
       </c>
       <c r="Q6" t="n">
-        <v>127.3704646542741</v>
+        <v>124.8908056516095</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_14_2_6</t>
+          <t>model_14_2_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999723453078306</v>
+        <v>0.9999205724007035</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990592876151112</v>
+        <v>0.9993002906942351</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999669720857426</v>
+        <v>0.9996410960715436</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9997645530283992</v>
+        <v>0.999997714412194</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9998817166685515</v>
+        <v>0.9998975481755026</v>
       </c>
       <c r="G7" t="n">
-        <v>2.581444123936179e-05</v>
+        <v>7.414217747463423e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008781137187924085</v>
+        <v>0.0006531479232427822</v>
       </c>
       <c r="I7" t="n">
-        <v>2.449173805221784e-05</v>
+        <v>0.0001072076935082814</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0001293079824894441</v>
+        <v>1.640444398796179e-06</v>
       </c>
       <c r="K7" t="n">
-        <v>7.689986027083098e-05</v>
+        <v>5.442406895353881e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0004147753039328882</v>
+        <v>0.0005256354557457072</v>
       </c>
       <c r="M7" t="n">
-        <v>0.005080791398922199</v>
+        <v>0.008610585199313356</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000073745845785</v>
+        <v>1.000211806931457</v>
       </c>
       <c r="O7" t="n">
-        <v>0.005297091207462437</v>
+        <v>0.008977155637616724</v>
       </c>
       <c r="P7" t="n">
-        <v>87.12915296934361</v>
+        <v>85.01905198180901</v>
       </c>
       <c r="Q7" t="n">
-        <v>127.3520551899942</v>
+        <v>125.2419542024596</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_14_2_7</t>
+          <t>model_14_2_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999721152615471</v>
+        <v>0.9999332728354815</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9990571930086466</v>
+        <v>0.9992826981175968</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999659871799483</v>
+        <v>0.9996748339725019</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9997610719118595</v>
+        <v>0.9999977259276004</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9998796846293339</v>
+        <v>0.9999070415479568</v>
       </c>
       <c r="G8" t="n">
-        <v>2.60291793472687e-05</v>
+        <v>6.228687909403726e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.000880068941984433</v>
+        <v>0.0006695698213097094</v>
       </c>
       <c r="I8" t="n">
-        <v>2.522209161106585e-05</v>
+        <v>9.712989201665032e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0001312198191697155</v>
+        <v>1.632179398469959e-06</v>
       </c>
       <c r="K8" t="n">
-        <v>7.822095539039067e-05</v>
+        <v>4.938103570756014e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0004114762519272957</v>
+        <v>0.0004869162127765786</v>
       </c>
       <c r="M8" t="n">
-        <v>0.005101879981660554</v>
+        <v>0.007892203690607412</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000074359302541</v>
+        <v>1.000177939105383</v>
       </c>
       <c r="O8" t="n">
-        <v>0.005319077574827349</v>
+        <v>0.008228191140830439</v>
       </c>
       <c r="P8" t="n">
-        <v>87.11258473328772</v>
+        <v>85.36751952558872</v>
       </c>
       <c r="Q8" t="n">
-        <v>127.3354869539383</v>
+        <v>125.5904217462393</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_14_2_8</t>
+          <t>model_14_2_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999718954096718</v>
+        <v>0.9999438157761918</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9990551240747871</v>
+        <v>0.9992654460846686</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999650666326597</v>
+        <v>0.9997035619462522</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9997580027505886</v>
+        <v>0.9999977218531094</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9998778632944504</v>
+        <v>0.999915115820437</v>
       </c>
       <c r="G9" t="n">
-        <v>2.623440142244886e-05</v>
+        <v>5.244550672252873e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008820002009265852</v>
+        <v>0.0006856738367714561</v>
       </c>
       <c r="I9" t="n">
-        <v>2.590472033781882e-05</v>
+        <v>8.854859891634865e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0001329054091315411</v>
+        <v>1.635103799770483e-06</v>
       </c>
       <c r="K9" t="n">
-        <v>7.940506473467993e-05</v>
+        <v>4.509185135805957e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0004081874089007408</v>
+        <v>0.0004507379572280859</v>
       </c>
       <c r="M9" t="n">
-        <v>0.005121952891471071</v>
+        <v>0.007241927003396867</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000074945574209</v>
+        <v>1.000149824596822</v>
       </c>
       <c r="O9" t="n">
-        <v>0.00534000502996515</v>
+        <v>0.007550230828787025</v>
       </c>
       <c r="P9" t="n">
-        <v>87.09687795415586</v>
+        <v>85.71147178923525</v>
       </c>
       <c r="Q9" t="n">
-        <v>127.3197801748065</v>
+        <v>125.9343740098859</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_14_2_9</t>
+          <t>model_14_2_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999716920056568</v>
+        <v>0.999952504866467</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9990531124777924</v>
+        <v>0.9992487454310776</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999642134459864</v>
+        <v>0.9997273851845452</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9997553425153346</v>
+        <v>0.9999977074474019</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9998762530965302</v>
+        <v>0.9999218041207134</v>
       </c>
       <c r="G10" t="n">
-        <v>2.642427014197856e-05</v>
+        <v>4.433462235761951e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008838779384222988</v>
+        <v>0.0007012631638246971</v>
       </c>
       <c r="I10" t="n">
-        <v>2.653739802831741e-05</v>
+        <v>8.143239252573429e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0001343664160465549</v>
+        <v>1.645443267850108e-06</v>
       </c>
       <c r="K10" t="n">
-        <v>8.045190703743613e-05</v>
+        <v>4.153891789679221e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0004049388319223755</v>
+        <v>0.0004173692722736194</v>
       </c>
       <c r="M10" t="n">
-        <v>0.005140454273892391</v>
+        <v>0.006658424915670335</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000075487984915</v>
+        <v>1.000126653689421</v>
       </c>
       <c r="O10" t="n">
-        <v>0.005359294054539289</v>
+        <v>0.006941887849170137</v>
       </c>
       <c r="P10" t="n">
-        <v>87.0824552931426</v>
+        <v>86.04748928619509</v>
       </c>
       <c r="Q10" t="n">
-        <v>127.3053575137932</v>
+        <v>126.2703915068457</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_14_2_10</t>
+          <t>model_14_2_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999714993571979</v>
+        <v>0.9999596469314299</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9990511706339915</v>
+        <v>0.9992327071392103</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999634433787123</v>
+        <v>0.9997470058509285</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9997529551414315</v>
+        <v>0.9999976818978452</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9998748055522906</v>
+        <v>0.999927303316881</v>
       </c>
       <c r="G11" t="n">
-        <v>2.660409902212436e-05</v>
+        <v>3.766781821521044e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008856905643732535</v>
+        <v>0.0007162342052831944</v>
       </c>
       <c r="I11" t="n">
-        <v>2.710843880945131e-05</v>
+        <v>7.55715305477366e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0001356775669217049</v>
+        <v>1.663781056964622e-06</v>
       </c>
       <c r="K11" t="n">
-        <v>8.139300286557811e-05</v>
+        <v>3.861765580235062e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0004017892307525858</v>
+        <v>0.0003865985477058017</v>
       </c>
       <c r="M11" t="n">
-        <v>0.005157916151133552</v>
+        <v>0.006137411361087869</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000076001714139</v>
+        <v>1.000107608182853</v>
       </c>
       <c r="O11" t="n">
-        <v>0.005377499320045675</v>
+        <v>0.006398693668922353</v>
       </c>
       <c r="P11" t="n">
-        <v>87.06889051094497</v>
+        <v>86.37340891260425</v>
       </c>
       <c r="Q11" t="n">
-        <v>127.2917927315956</v>
+        <v>126.5963111332549</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_14_2_11</t>
+          <t>model_14_2_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999713233920461</v>
+        <v>0.999965489730697</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9990493344588401</v>
+        <v>0.9992174542292499</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999627614220893</v>
+        <v>0.9997630317275571</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9997508595879888</v>
+        <v>0.9999976472642583</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9998735315161537</v>
+        <v>0.9999317856817024</v>
       </c>
       <c r="G12" t="n">
-        <v>2.676835476741242e-05</v>
+        <v>3.221382156860224e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008874045532783061</v>
+        <v>0.0007304721272058763</v>
       </c>
       <c r="I12" t="n">
-        <v>2.761414143560879e-05</v>
+        <v>7.078446321975648e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0001368284493732121</v>
+        <v>1.688638764654388e-06</v>
       </c>
       <c r="K12" t="n">
-        <v>8.222129540441042e-05</v>
+        <v>3.623655099220544e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0003987431396777425</v>
+        <v>0.0003584663288944481</v>
       </c>
       <c r="M12" t="n">
-        <v>0.005173814334455037</v>
+        <v>0.005675722118691351</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000076470954544</v>
+        <v>1.000092027384808</v>
       </c>
       <c r="O12" t="n">
-        <v>0.005394074321944932</v>
+        <v>0.00591734935964853</v>
       </c>
       <c r="P12" t="n">
-        <v>87.05658032078529</v>
+        <v>86.68622991250129</v>
       </c>
       <c r="Q12" t="n">
-        <v>127.2794825414359</v>
+        <v>126.9091321331519</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_14_2_12</t>
+          <t>model_14_2_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999711519569637</v>
+        <v>0.999970272467993</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9990476153451032</v>
+        <v>0.9992030439997277</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999621149167565</v>
+        <v>0.9997761675880262</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9997489650015063</v>
+        <v>0.9999976094179105</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9998723625818468</v>
+        <v>0.9999354533324617</v>
       </c>
       <c r="G13" t="n">
-        <v>2.692838189162669e-05</v>
+        <v>2.774934624068282e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.000889009270491385</v>
+        <v>0.0007439234439288566</v>
       </c>
       <c r="I13" t="n">
-        <v>2.809355527737994e-05</v>
+        <v>6.68606686009562e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.00013786896033849</v>
+        <v>1.715802380575571e-06</v>
       </c>
       <c r="K13" t="n">
-        <v>8.298125780793496e-05</v>
+        <v>3.428823549076588e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0003959171000863989</v>
+        <v>0.00033272892352498</v>
       </c>
       <c r="M13" t="n">
-        <v>0.005189256391008898</v>
+        <v>0.005267764823972575</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000076928114763</v>
+        <v>1.000079273418685</v>
       </c>
       <c r="O13" t="n">
-        <v>0.005410173778815754</v>
+        <v>0.005492024478305556</v>
       </c>
       <c r="P13" t="n">
-        <v>87.04465947732704</v>
+        <v>86.98459655388731</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.2675616979777</v>
+        <v>127.2074987745379</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_14_2_13</t>
+          <t>model_14_2_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999709936861917</v>
+        <v>0.9999741694076032</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9990460167265568</v>
+        <v>0.9991895189942485</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999615224406566</v>
+        <v>0.9997868077082466</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9997473073973945</v>
+        <v>0.9999975676545634</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9998713245565256</v>
+        <v>0.9999384166462078</v>
       </c>
       <c r="G14" t="n">
-        <v>2.707612070999825e-05</v>
+        <v>2.411172417041357e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008905015107332096</v>
+        <v>0.0007565484428645815</v>
       </c>
       <c r="I14" t="n">
-        <v>2.853290392434317e-05</v>
+        <v>6.368237308220451e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.000138779320076896</v>
+        <v>1.745777360621253e-06</v>
       </c>
       <c r="K14" t="n">
-        <v>8.365611200061957e-05</v>
+        <v>3.271407522141288e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0003932707213311626</v>
+        <v>0.000309352889176977</v>
       </c>
       <c r="M14" t="n">
-        <v>0.005203471986087583</v>
+        <v>0.004910369046254423</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000077350170155</v>
+        <v>1.000068881579725</v>
       </c>
       <c r="O14" t="n">
-        <v>0.005424994561207277</v>
+        <v>0.00511941362241869</v>
       </c>
       <c r="P14" t="n">
-        <v>87.03371674627232</v>
+        <v>87.26562471132119</v>
       </c>
       <c r="Q14" t="n">
-        <v>127.2566189669229</v>
+        <v>127.4885269319718</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_14_2_14</t>
+          <t>model_14_2_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999708465605092</v>
+        <v>0.9999773231103735</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9990445476368355</v>
+        <v>0.9991768864713186</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999609849542679</v>
+        <v>0.9997950973535185</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9997458292982887</v>
+        <v>0.9999975241928799</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9998703937108401</v>
+        <v>0.9999407179638989</v>
       </c>
       <c r="G15" t="n">
-        <v>2.721345607664964e-05</v>
+        <v>2.116788106600973e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008918728415024739</v>
+        <v>0.0007683403485159534</v>
       </c>
       <c r="I15" t="n">
-        <v>2.893147513701046e-05</v>
+        <v>6.120618466760147e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0001395910952804204</v>
+        <v>1.776971294643548e-06</v>
       </c>
       <c r="K15" t="n">
-        <v>8.426128520871542e-05</v>
+        <v>3.14915779811225e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0003907964424718399</v>
+        <v>0.0002882491106689618</v>
       </c>
       <c r="M15" t="n">
-        <v>0.005216651807112455</v>
+        <v>0.004600856557860692</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000077742505309</v>
+        <v>1.000060471705671</v>
       </c>
       <c r="O15" t="n">
-        <v>0.005438735474499168</v>
+        <v>0.00479672454661486</v>
       </c>
       <c r="P15" t="n">
-        <v>87.02359799657995</v>
+        <v>87.52605113836441</v>
       </c>
       <c r="Q15" t="n">
-        <v>127.2465002172306</v>
+        <v>127.748953359015</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_14_2_15</t>
+          <t>model_14_2_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999707109715872</v>
+        <v>0.9999798921646351</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9990431974486136</v>
+        <v>0.9991651523591544</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999605036181596</v>
+        <v>0.9998018205216402</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9997445125452217</v>
+        <v>0.9999974801374254</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9998695630367377</v>
+        <v>0.9999425784569496</v>
       </c>
       <c r="G16" t="n">
-        <v>2.734002238359146e-05</v>
+        <v>1.876978168117795e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.000893133182941234</v>
+        <v>0.0007792936271532559</v>
       </c>
       <c r="I16" t="n">
-        <v>2.928840829936271e-05</v>
+        <v>5.919791646471297e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0001403142588928748</v>
+        <v>1.808591398412331e-06</v>
       </c>
       <c r="K16" t="n">
-        <v>8.480133359611876e-05</v>
+        <v>3.050325393156265e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0003885077928698753</v>
+        <v>0.0002690410622068962</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0052287687253876</v>
+        <v>0.004332410608561699</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000078104075768</v>
+        <v>1.000053620894306</v>
       </c>
       <c r="O16" t="n">
-        <v>0.005451368235070765</v>
+        <v>0.004516850297494487</v>
       </c>
       <c r="P16" t="n">
-        <v>87.01431781591322</v>
+        <v>87.76652467739466</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.2372200365638</v>
+        <v>127.9894268980453</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_14_2_16</t>
+          <t>model_14_2_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999705851335425</v>
+        <v>0.9999819727705372</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9990419515991169</v>
+        <v>0.9991542888715224</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999600775282591</v>
+        <v>0.9998071504828466</v>
       </c>
       <c r="E17" t="n">
-        <v>0.999743321700025</v>
+        <v>0.9999974358756453</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9998688170503561</v>
+        <v>0.9999440471029637</v>
       </c>
       <c r="G17" t="n">
-        <v>2.745748667458978e-05</v>
+        <v>1.682762739956084e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0008942961287599267</v>
+        <v>0.0007894342160057134</v>
       </c>
       <c r="I17" t="n">
-        <v>2.960437382319532e-05</v>
+        <v>5.760581116266449e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0001409682736325957</v>
+        <v>1.84035958912183e-06</v>
       </c>
       <c r="K17" t="n">
-        <v>8.528632372789549e-05</v>
+        <v>2.972308537589316e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0003864179204051899</v>
+        <v>0.0002526554541268711</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0052399891864955</v>
+        <v>0.004102149119615332</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000078439643887</v>
+        <v>1.000048072611901</v>
       </c>
       <c r="O17" t="n">
-        <v>0.005463066374437586</v>
+        <v>0.004276786100256679</v>
       </c>
       <c r="P17" t="n">
-        <v>87.00574337718885</v>
+        <v>87.98497706835175</v>
       </c>
       <c r="Q17" t="n">
-        <v>127.2286455978395</v>
+        <v>128.2078792890024</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_14_2_17</t>
+          <t>model_14_2_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999704679947394</v>
+        <v>0.9999836488464438</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9990408118222007</v>
+        <v>0.9991442621076643</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999596884508453</v>
+        <v>0.9998111553740064</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9997422526744151</v>
+        <v>0.9999973922964253</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9998681436261335</v>
+        <v>0.9999451436594837</v>
       </c>
       <c r="G18" t="n">
-        <v>2.756683060552373e-05</v>
+        <v>1.52630841120637e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0008953600604807335</v>
+        <v>0.0007987937599431847</v>
       </c>
       <c r="I18" t="n">
-        <v>2.989289286275684e-05</v>
+        <v>5.640951569206794e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0001415553847935938</v>
+        <v>1.871637883063461e-06</v>
       </c>
       <c r="K18" t="n">
-        <v>8.572413882817532e-05</v>
+        <v>2.91405767875657e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0003844862578756887</v>
+        <v>0.000243674971233733</v>
       </c>
       <c r="M18" t="n">
-        <v>0.005250412422422046</v>
+        <v>0.003906799727662489</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000078752014028</v>
+        <v>1.00004360307615</v>
       </c>
       <c r="O18" t="n">
-        <v>0.005473933349096597</v>
+        <v>0.004073120280259416</v>
       </c>
       <c r="P18" t="n">
-        <v>86.99779459524879</v>
+        <v>88.18014689639817</v>
       </c>
       <c r="Q18" t="n">
-        <v>127.2206968158994</v>
+        <v>128.4030491170488</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_14_2_0</t>
+          <t>model_14_2_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999804590430137</v>
+        <v>0.9999850081506898</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9990400814450571</v>
+        <v>0.9991350376811236</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999791206469392</v>
+        <v>0.999814381260563</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9998596844059082</v>
+        <v>0.9999973501265957</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999288263450712</v>
+        <v>0.999946022146775</v>
       </c>
       <c r="G19" t="n">
-        <v>1.824062559781375e-05</v>
+        <v>1.399423326489225e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0008960418354845117</v>
+        <v>0.0008074043572134542</v>
       </c>
       <c r="I19" t="n">
-        <v>1.548301360722386e-05</v>
+        <v>5.544591560350099e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>7.706162564103694e-05</v>
+        <v>1.901904609394107e-06</v>
       </c>
       <c r="K19" t="n">
-        <v>4.62723196241304e-05</v>
+        <v>2.867391010644755e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0003341135082894561</v>
+        <v>0.0002355048739752431</v>
       </c>
       <c r="M19" t="n">
-        <v>0.004270904540939044</v>
+        <v>0.003740886695008584</v>
       </c>
       <c r="N19" t="n">
-        <v>1.00005210921863</v>
+        <v>1.000039978264827</v>
       </c>
       <c r="O19" t="n">
-        <v>0.004452725789238023</v>
+        <v>0.003900143986318109</v>
       </c>
       <c r="P19" t="n">
-        <v>87.823718551561</v>
+        <v>88.35373044571531</v>
       </c>
       <c r="Q19" t="n">
-        <v>128.0466207722116</v>
+        <v>128.5766326663659</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999703591416488</v>
+        <v>0.9999861072820412</v>
       </c>
       <c r="C20" t="n">
-        <v>0.999039774084286</v>
+        <v>0.9991265766802949</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999593293709134</v>
+        <v>0.99981692754498</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9997412975944334</v>
+        <v>0.9999973102356813</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9998675354376054</v>
+        <v>0.9999467110997909</v>
       </c>
       <c r="G20" t="n">
-        <v>2.766844018754051e-05</v>
+        <v>1.296824239474493e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.000896328743272647</v>
+        <v>0.0008153023300919034</v>
       </c>
       <c r="I20" t="n">
-        <v>3.015916737117564e-05</v>
+        <v>5.468531852521909e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0001420799167707918</v>
+        <v>1.930535680609123e-06</v>
       </c>
       <c r="K20" t="n">
-        <v>8.611954207098373e-05</v>
+        <v>2.83079271029141e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0003827511052331065</v>
+        <v>0.0002281023184579254</v>
       </c>
       <c r="M20" t="n">
-        <v>0.005260079865129474</v>
+        <v>0.003601144595089863</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000079042288937</v>
+        <v>1.00003704724789</v>
       </c>
       <c r="O20" t="n">
-        <v>0.005484012354854446</v>
+        <v>0.003754452775899822</v>
       </c>
       <c r="P20" t="n">
-        <v>86.99043627545238</v>
+        <v>88.50601416389098</v>
       </c>
       <c r="Q20" t="n">
-        <v>127.213338496103</v>
+        <v>128.7289163845416</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999702602002071</v>
+        <v>0.9999869895118321</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9990388318127348</v>
+        <v>0.9991188289223316</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999589954235203</v>
+        <v>0.9998187757103917</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9997404608611169</v>
+        <v>0.9999972720099297</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9998669915691718</v>
+        <v>0.99994720489779</v>
       </c>
       <c r="G21" t="n">
-        <v>2.776079768039397e-05</v>
+        <v>1.214471961036287e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0008972083124048267</v>
+        <v>0.0008225345220634506</v>
       </c>
       <c r="I21" t="n">
-        <v>3.040680493045101e-05</v>
+        <v>5.41332556044977e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0001425394525053051</v>
+        <v>1.957971607556713e-06</v>
       </c>
       <c r="K21" t="n">
-        <v>8.647312871787806e-05</v>
+        <v>2.804561360602721e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0003811455936392798</v>
+        <v>0.0002214273333027296</v>
       </c>
       <c r="M21" t="n">
-        <v>0.005268851647218203</v>
+        <v>0.003484927489972046</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000079306132781</v>
+        <v>1.000034694635114</v>
       </c>
       <c r="O21" t="n">
-        <v>0.005493157569866784</v>
+        <v>0.003633288068014568</v>
       </c>
       <c r="P21" t="n">
-        <v>86.983771375708</v>
+        <v>88.63723216522757</v>
       </c>
       <c r="Q21" t="n">
-        <v>127.2066735963586</v>
+        <v>128.8601343858782</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999701675322076</v>
+        <v>0.9999876998229706</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9990379768155245</v>
+        <v>0.9991117458225102</v>
       </c>
       <c r="D22" t="n">
-        <v>0.999958700496144</v>
+        <v>0.9998202065191001</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9997396859127372</v>
+        <v>0.9999972359823794</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9998664960505462</v>
+        <v>0.9999475828387082</v>
       </c>
       <c r="G22" t="n">
-        <v>2.784729919021763e-05</v>
+        <v>1.148167534158229e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008980064147705237</v>
+        <v>0.0008291462848346332</v>
       </c>
       <c r="I22" t="n">
-        <v>3.062550732831452e-05</v>
+        <v>5.370586072435368e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0001429650558198744</v>
+        <v>1.983829810371277e-06</v>
       </c>
       <c r="K22" t="n">
-        <v>8.679528157409447e-05</v>
+        <v>2.784484526736247e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0003796962876764221</v>
+        <v>0.0002153860668500098</v>
       </c>
       <c r="M22" t="n">
-        <v>0.005277054025705785</v>
+        <v>0.0033884620909171</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000079553247446</v>
+        <v>1.000032800472078</v>
       </c>
       <c r="O22" t="n">
-        <v>0.005501709140587847</v>
+        <v>0.003532715937210948</v>
       </c>
       <c r="P22" t="n">
-        <v>86.97754914661098</v>
+        <v>88.74951648408506</v>
       </c>
       <c r="Q22" t="n">
-        <v>127.2004513672616</v>
+        <v>128.9724187047357</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999700827549645</v>
+        <v>0.9999882702621081</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9990371870536051</v>
+        <v>0.9991052795256606</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999584295632584</v>
+        <v>0.9998212542365414</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9997389813270663</v>
+        <v>0.9999972028020704</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9998660439356637</v>
+        <v>0.9999478549949221</v>
       </c>
       <c r="G23" t="n">
-        <v>2.792643502539404e-05</v>
+        <v>1.094919544608483e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0008987436228557194</v>
+        <v>0.0008351822891059734</v>
       </c>
       <c r="I23" t="n">
-        <v>3.082641669279754e-05</v>
+        <v>5.339289850403904e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0001433520157836261</v>
+        <v>2.007644450960052e-06</v>
       </c>
       <c r="K23" t="n">
-        <v>8.708921623821183e-05</v>
+        <v>2.770027147749955e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0003783776897969815</v>
+        <v>0.0002099462631420582</v>
       </c>
       <c r="M23" t="n">
-        <v>0.005284546813624991</v>
+        <v>0.003308956851650506</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000079779320095</v>
+        <v>1.000031279301045</v>
       </c>
       <c r="O23" t="n">
-        <v>0.005509520912000982</v>
+        <v>0.003449825995310241</v>
       </c>
       <c r="P23" t="n">
-        <v>86.97187365154902</v>
+        <v>88.8444891592892</v>
       </c>
       <c r="Q23" t="n">
-        <v>127.1947758721996</v>
+        <v>129.0673913799398</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.999970004277267</v>
+        <v>0.9999887263802683</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9990364776777616</v>
+        <v>0.99909939046326</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999581851809104</v>
+        <v>0.9998219826334861</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9997383611103474</v>
+        <v>0.99999717123876</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9998656425981625</v>
+        <v>0.9999480384648285</v>
       </c>
       <c r="G24" t="n">
-        <v>2.7999690511143e-05</v>
+        <v>1.052342916484666e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0008994057940676316</v>
+        <v>0.0008406794703570749</v>
       </c>
       <c r="I24" t="n">
-        <v>3.100763759592598e-05</v>
+        <v>5.317532006531485e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>0.000143692640137712</v>
+        <v>2.030298516456072e-06</v>
       </c>
       <c r="K24" t="n">
-        <v>8.735013886681901e-05</v>
+        <v>2.760280929088546e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0003771898835215042</v>
+        <v>0.000205041883711001</v>
       </c>
       <c r="M24" t="n">
-        <v>0.005291473378100187</v>
+        <v>0.003243983533380936</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000079988593955</v>
+        <v>1.000030062985951</v>
       </c>
       <c r="O24" t="n">
-        <v>0.005516742354665852</v>
+        <v>0.003382086628368624</v>
       </c>
       <c r="P24" t="n">
-        <v>86.96663420204725</v>
+        <v>88.92381287505998</v>
       </c>
       <c r="Q24" t="n">
-        <v>127.1895364226979</v>
+        <v>129.1467150957106</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.999969934077418</v>
+        <v>0.9999890923802981</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9990358339152053</v>
+        <v>0.999094029208031</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999579670039036</v>
+        <v>0.9998225000415195</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9997378023892664</v>
+        <v>0.9999971424302322</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9998652821800147</v>
+        <v>0.9999481644750765</v>
       </c>
       <c r="G25" t="n">
-        <v>2.806521898890384e-05</v>
+        <v>1.018178420255884e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0009000067181560632</v>
+        <v>0.0008456839667813453</v>
       </c>
       <c r="I25" t="n">
-        <v>3.11694260170095e-05</v>
+        <v>5.30207658309835e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0001439994909554357</v>
+        <v>2.050975380365503e-06</v>
       </c>
       <c r="K25" t="n">
-        <v>8.758445848622263e-05</v>
+        <v>2.75358706056745e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0003761047948787538</v>
+        <v>0.0002006072990489869</v>
       </c>
       <c r="M25" t="n">
-        <v>0.005297661652928001</v>
+        <v>0.003190890816458446</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000080175793552</v>
+        <v>1.000029086985872</v>
       </c>
       <c r="O25" t="n">
-        <v>0.005523194077164582</v>
+        <v>0.003326733644569669</v>
       </c>
       <c r="P25" t="n">
-        <v>86.96195901336438</v>
+        <v>88.98982059344361</v>
       </c>
       <c r="Q25" t="n">
-        <v>127.184861234015</v>
+        <v>129.2127228140942</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.999969869861477</v>
+        <v>0.9999893833852348</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9990352459279727</v>
+        <v>0.9990891635890866</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999577715785498</v>
+        <v>0.9998228209017463</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9997373095475571</v>
+        <v>0.9999971145086053</v>
       </c>
       <c r="F26" t="n">
-        <v>0.999864962563156</v>
+        <v>0.9999482358239994</v>
       </c>
       <c r="G26" t="n">
-        <v>2.812516175102503e-05</v>
+        <v>9.910143867790328e-06</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0009005555784280791</v>
+        <v>0.000850225808489975</v>
       </c>
       <c r="I26" t="n">
-        <v>3.131434302684442e-05</v>
+        <v>5.292492211868677e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0001442701606806841</v>
+        <v>2.071015685200337e-06</v>
       </c>
       <c r="K26" t="n">
-        <v>8.779225185376426e-05</v>
+        <v>2.749796890194355e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0003751029478853854</v>
+        <v>0.0001966466678224372</v>
       </c>
       <c r="M26" t="n">
-        <v>0.005303316108910068</v>
+        <v>0.003148038098211381</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000080347036062</v>
+        <v>1.000028310972707</v>
       </c>
       <c r="O26" t="n">
-        <v>0.005529089255044143</v>
+        <v>0.003282056597389471</v>
       </c>
       <c r="P26" t="n">
-        <v>86.95769189261735</v>
+        <v>89.0439033845836</v>
       </c>
       <c r="Q26" t="n">
-        <v>127.180594113268</v>
+        <v>129.2668056052342</v>
       </c>
     </row>
   </sheetData>
